--- a/Data/EnergyBalance/2018/Energy Balance Figures.xlsx
+++ b/Data/EnergyBalance/2018/Energy Balance Figures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5292669_ad_unsw_edu_au/Documents/Desktop/Thesis/Thesis/Pacific Islands/Iain sent/Unstats database/Energy Balances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\PICs\Data\EnergyBalance\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{DD17C68B-BBC4-4CF7-B183-D10DC7242CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC02A6F4-32CD-46F8-969E-FE02C0F6306B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018EE3D8-8D3A-4CE4-8494-0BAE6C522C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5220" yWindow="2025" windowWidth="21600" windowHeight="11385" tabRatio="577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main data" sheetId="1" r:id="rId1"/>
@@ -6139,8 +6139,8 @@
   <dimension ref="A1:P797"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B556" sqref="B556:P557"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48411,8 +48411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFBD7E3-E867-48DA-AEA2-A492AAF2A220}">
   <dimension ref="A5:AX107"/>
   <sheetViews>
-    <sheetView topLeftCell="Y18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W89" sqref="W89"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/EnergyBalance/2018/Energy Balance Figures.xlsx
+++ b/Data/EnergyBalance/2018/Energy Balance Figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\PICs\Data\EnergyBalance\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018EE3D8-8D3A-4CE4-8494-0BAE6C522C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5884803-C143-4B74-9049-D875F872A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="577" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main data" sheetId="1" r:id="rId1"/>
@@ -6138,9 +6138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P797"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48411,7 +48411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFBD7E3-E867-48DA-AEA2-A492AAF2A220}">
   <dimension ref="A5:AX107"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
